--- a/Data/Export/49 RB Aulp du Seuil.xlsx
+++ b/Data/Export/49 RB Aulp du Seuil.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="2460" windowWidth="28220" windowHeight="11900"/>
+    <workbookView xWindow="525" yWindow="2460" windowWidth="24240" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rege!$A$1:$M$691</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transect!$A$1:$L$1123</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7147" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7148" uniqueCount="235">
   <si>
     <t>num</t>
   </si>
@@ -735,28 +730,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -768,55 +764,35 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -837,13 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,8 +833,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -868,78 +854,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 2 2" xfId="17"/>
-    <cellStyle name="Normal 3" xfId="16"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
-    <cellStyle name="XLConnect.Boolean" xfId="4"/>
-    <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Pourcentage 2" xfId="4"/>
+    <cellStyle name="XLConnect.Boolean" xfId="5"/>
+    <cellStyle name="XLConnect.DateTime" xfId="6"/>
+    <cellStyle name="XLConnect.Header" xfId="7"/>
+    <cellStyle name="XLConnect.Numeric" xfId="8"/>
+    <cellStyle name="XLConnect.String" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1229,16 +1180,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:S1"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -1296,8 +1247,11 @@
       <c r="S1" s="9" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>49</v>
       </c>
@@ -1338,7 +1292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>49</v>
       </c>
@@ -1379,7 +1333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>49</v>
       </c>
@@ -1420,7 +1374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>49</v>
       </c>
@@ -1461,7 +1415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>49</v>
       </c>
@@ -1502,7 +1456,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>49</v>
       </c>
@@ -1543,7 +1497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>49</v>
       </c>
@@ -1584,7 +1538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>49</v>
       </c>
@@ -1625,7 +1579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>49</v>
       </c>
@@ -1666,7 +1620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>49</v>
       </c>
@@ -1707,7 +1661,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>49</v>
       </c>
@@ -1748,7 +1702,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>49</v>
       </c>
@@ -1789,7 +1743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>49</v>
       </c>
@@ -1830,7 +1784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>49</v>
       </c>
@@ -1871,7 +1825,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>49</v>
       </c>
@@ -3309,21 +3263,14 @@
       <c r="F97" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:V97">
-    <sortCondition ref="B2:B97"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3332,7 +3279,7 @@
       <selection pane="bottomLeft" activeCell="B1309" sqref="B1309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
@@ -58263,30 +58210,21 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q1313">
-    <sortCondition ref="A2:A1313"/>
-    <sortCondition ref="B2:B1313"/>
-    <sortCondition ref="F2:F1313"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T137" sqref="T137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
@@ -72428,24 +72366,20 @@
       <c r="M691" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L1123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
@@ -90152,27 +90086,23 @@
       <c r="L1123" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K90" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
@@ -94112,27 +94042,23 @@
       <c r="M98" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L79" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="10" t="s">
@@ -94158,24 +94084,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="13" t="s">
@@ -94892,11 +94814,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>